--- a/demo/contact-placement.xlsx
+++ b/demo/contact-placement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akashlevy/Documents/NEM-Relay-CAD/demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5B4D005-A118-D045-8D53-ADEEC3528ADF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327B96FA-9BB7-1043-882E-A44B3C6C73A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32900" yWindow="-8700" windowWidth="28040" windowHeight="17040" xr2:uid="{7CD5599E-4023-9243-B236-7EE00687D2DB}"/>
+    <workbookView xWindow="300" yWindow="1360" windowWidth="28040" windowHeight="17040" xr2:uid="{7CD5599E-4023-9243-B236-7EE00687D2DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -120,71 +120,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1440" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" b="1"/>
-              <a:t>Iterative Contact Placement:</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="1"/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" b="1"/>
-              <a:t>Reduction in Variation</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1440" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
@@ -390,18 +326,28 @@
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
                     </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1600" b="1"/>
-                  <a:t>Iteration</a:t>
+                  <a:rPr lang="en-US" sz="1600" b="1">
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>Placement Iteration</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.2839685039370079"/>
+              <c:y val="0.79450666666666681"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -422,7 +368,7 @@
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
                   </a:solidFill>
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
@@ -453,14 +399,14 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
@@ -473,6 +419,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="2"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -503,36 +450,42 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="accent2"/>
                     </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400" b="1">
+                  <a:rPr lang="en-US" sz="1600" b="1">
                     <a:solidFill>
                       <a:schemeClr val="accent2"/>
                     </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                   </a:rPr>
                   <a:t>Std. of R</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400" b="1" baseline="-25000">
+                  <a:rPr lang="en-US" sz="1600" b="1" baseline="-25000">
                     <a:solidFill>
                       <a:schemeClr val="accent2"/>
                     </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                   </a:rPr>
                   <a:t>cont</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400" b="1">
+                  <a:rPr lang="en-US" sz="1600" b="1">
                     <a:solidFill>
                       <a:schemeClr val="accent2"/>
                     </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                   </a:rPr>
                   <a:t> (Ω)</a:t>
                 </a:r>
@@ -543,8 +496,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="2.7777777777777776E-2"/>
-              <c:y val="0.21081036745406828"/>
+              <c:x val="3.4077004154008307E-2"/>
+              <c:y val="8.5217847769028868E-2"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -560,13 +513,13 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="accent2"/>
                   </a:solidFill>
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="en-US"/>
@@ -589,11 +542,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="accent2"/>
                 </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
@@ -609,52 +562,65 @@
         <c:axId val="794174687"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="16"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="accent1"/>
                     </a:solidFill>
-                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400" b="1">
+                  <a:rPr lang="en-US" sz="1600" b="1">
                     <a:solidFill>
                       <a:schemeClr val="accent1"/>
                     </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
                   </a:rPr>
                   <a:t>Std. of F</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400" b="1" baseline="-25000">
+                  <a:rPr lang="en-US" sz="1600" b="1" baseline="-25000">
                     <a:solidFill>
                       <a:schemeClr val="accent1"/>
                     </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
                   </a:rPr>
                   <a:t>cont</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400" b="1">
+                  <a:rPr lang="en-US" sz="1600" b="1">
                     <a:solidFill>
                       <a:schemeClr val="accent1"/>
                     </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
                   </a:rPr>
                   <a:t> (nN)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.88749606299212602"/>
+              <c:y val="6.5395065616797907E-2"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -664,15 +630,15 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="accent1"/>
                   </a:solidFill>
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
@@ -697,11 +663,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
-                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
               </a:defRPr>
@@ -712,6 +678,7 @@
         <c:crossAx val="794177119"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="4"/>
       </c:valAx>
       <c:catAx>
         <c:axId val="794177119"/>
@@ -755,12 +722,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1346,16 +1308,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>692150</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>311150</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>196850</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1380,6 +1342,212 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AC3F5B1-E395-6B4A-853E-3941C4B3DE40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8280400" y="2933700"/>
+          <a:ext cx="0" cy="1168400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E02E3B2-624D-8044-A1E5-D0B445DCA7F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8280400" y="4102100"/>
+          <a:ext cx="1892300" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:solidFill>
+            <a:srgbClr val="FF0000">
+              <a:alpha val="99000"/>
+            </a:srgbClr>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>429597</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1516184" cy="530658"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97C2E114-F7A5-DC43-A729-D90B980EE97C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8887797" y="2692400"/>
+          <a:ext cx="1516184" cy="530658"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>∼40x reduction</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>in std(R</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1" baseline="-25000">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>cont</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>) by i=3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1680,10 +1848,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E602A29-76FB-9948-840E-76F98A6368B3}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1763,6 +1931,16 @@
         <v>0.86131824811669599</v>
       </c>
     </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C10">
+        <f>B5/B2</f>
+        <v>5.7017027055624017E-2</v>
+      </c>
+      <c r="D10">
+        <f>C2/C5</f>
+        <v>41.794152098047931</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
